--- a/Module2Homework-JULY/JulyProbabilityHW.xlsx
+++ b/Module2Homework-JULY/JulyProbabilityHW.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\edxtake2module1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferryto\Documents\GitHub\DAT222x\Module2Homework-JULY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Experiments, Sample Space and Events</t>
   </si>
@@ -51,12 +51,21 @@
   </si>
   <si>
     <t>1. When two dice are rolled determine</t>
+  </si>
+  <si>
+    <t>1/8+1/16</t>
+  </si>
+  <si>
+    <t>P(3)</t>
+  </si>
+  <si>
+    <t>P(4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,9 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,11 +387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G14"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -388,49 +399,136 @@
     <col min="1" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="E7" s="3">
+        <v>42430</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="G10" s="3">
+        <v>19207</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G11" s="3">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G12" s="3">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
